--- a/Instances/G0041331_Lumpy_b2_fe25_el_rk25_ll0_l20_H04_c2_A4_a0.xlsx
+++ b/Instances/G0041331_Lumpy_b2_fe25_el_rk25_ll0_l20_H04_c2_A4_a0.xlsx
@@ -1598,7 +1598,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1636,7 +1636,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1668,7 +1668,7 @@
         <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>

--- a/Instances/G0041331_Lumpy_b2_fe25_el_rk25_ll0_l20_H04_c2_A4_a0.xlsx
+++ b/Instances/G0041331_Lumpy_b2_fe25_el_rk25_ll0_l20_H04_c2_A4_a0.xlsx
@@ -1630,7 +1630,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1668,7 +1668,7 @@
         <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1750,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>

--- a/Instances/G0041331_Lumpy_b2_fe25_el_rk25_ll0_l20_H04_c2_A4_a0.xlsx
+++ b/Instances/G0041331_Lumpy_b2_fe25_el_rk25_ll0_l20_H04_c2_A4_a0.xlsx
@@ -1595,10 +1595,10 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1630,13 +1630,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1671,7 +1671,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1709,13 +1709,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1747,7 +1747,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1779,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
